--- a/Database/aerlive_data.xlsx
+++ b/Database/aerlive_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\horva\Desktop\Practica\Practica_covid19_UTCN\Database\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\UTCN\AN III - sem 2\Practica\Script\Practica_covid19_UTCN\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DF9081F3-FFD3-4C92-A8E9-2DA79FDD14E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59E4FD69-3346-45E9-9548-CBED3C8D86AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="1590" windowWidth="26940" windowHeight="21860"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calitate_aerCalitate_aer (8)" sheetId="1" r:id="rId1"/>
@@ -20,32 +20,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Co</t>
+    <t>Data</t>
   </si>
   <si>
-    <t>ica</t>
+    <t>Zile</t>
   </si>
   <si>
-    <t>No2</t>
+    <t>CO2</t>
   </si>
   <si>
-    <t>Pm10</t>
+    <t>SO2</t>
   </si>
   <si>
-    <t>Pm2.5</t>
+    <t>PM2.5</t>
   </si>
   <si>
-    <t>So2</t>
+    <t>PM10</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>CA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -532,7 +538,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -892,40 +898,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.08984375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
         <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43887</v>
       </c>
@@ -951,7 +963,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43888</v>
       </c>
@@ -977,7 +989,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43889</v>
       </c>
@@ -1003,7 +1015,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43890</v>
       </c>
@@ -1029,7 +1041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43891</v>
       </c>
@@ -1055,7 +1067,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43892</v>
       </c>
@@ -1081,7 +1093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43893</v>
       </c>
@@ -1107,7 +1119,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43894</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43895</v>
       </c>
@@ -1159,7 +1171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43896</v>
       </c>
@@ -1185,7 +1197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43897</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43898</v>
       </c>
@@ -1237,7 +1249,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43899</v>
       </c>
@@ -1263,7 +1275,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43900</v>
       </c>
@@ -1289,7 +1301,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43901</v>
       </c>
@@ -1315,7 +1327,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43902</v>
       </c>
@@ -1341,7 +1353,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43903</v>
       </c>
@@ -1367,7 +1379,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43904</v>
       </c>
@@ -1393,7 +1405,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43905</v>
       </c>
@@ -1419,7 +1431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43906</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43907</v>
       </c>
@@ -1471,7 +1483,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43908</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43909</v>
       </c>
@@ -1523,7 +1535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43910</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43911</v>
       </c>
@@ -1575,7 +1587,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43912</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43913</v>
       </c>
@@ -1627,7 +1639,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43914</v>
       </c>
@@ -1653,7 +1665,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43915</v>
       </c>
@@ -1679,7 +1691,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43916</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43917</v>
       </c>
@@ -1731,7 +1743,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43918</v>
       </c>
@@ -1757,7 +1769,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43919</v>
       </c>
@@ -1783,7 +1795,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43920</v>
       </c>
@@ -1809,7 +1821,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43921</v>
       </c>
@@ -1835,7 +1847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43922</v>
       </c>
@@ -1861,7 +1873,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43923</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43924</v>
       </c>
@@ -1913,7 +1925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43925</v>
       </c>
@@ -1939,7 +1951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43926</v>
       </c>
@@ -1965,7 +1977,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43927</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43928</v>
       </c>
@@ -2017,7 +2029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43929</v>
       </c>
@@ -2043,7 +2055,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43930</v>
       </c>
@@ -2069,7 +2081,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43931</v>
       </c>
@@ -2095,7 +2107,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43932</v>
       </c>
@@ -2121,7 +2133,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43933</v>
       </c>
@@ -2147,7 +2159,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43934</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43935</v>
       </c>
@@ -2199,7 +2211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43936</v>
       </c>
@@ -2225,7 +2237,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43937</v>
       </c>
@@ -2251,7 +2263,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43938</v>
       </c>
@@ -2277,7 +2289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43939</v>
       </c>
@@ -2303,7 +2315,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43940</v>
       </c>
@@ -2329,7 +2341,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43941</v>
       </c>
@@ -2355,7 +2367,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43942</v>
       </c>
@@ -2381,7 +2393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43943</v>
       </c>
@@ -2407,7 +2419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43944</v>
       </c>
@@ -2433,7 +2445,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43945</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43946</v>
       </c>
@@ -2485,7 +2497,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43947</v>
       </c>
@@ -2511,7 +2523,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43948</v>
       </c>
@@ -2537,7 +2549,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43949</v>
       </c>
@@ -2563,7 +2575,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>43950</v>
       </c>
@@ -2589,7 +2601,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>43951</v>
       </c>
@@ -2615,7 +2627,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>43952</v>
       </c>
@@ -2641,7 +2653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>43953</v>
       </c>
@@ -2667,7 +2679,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>43954</v>
       </c>
@@ -2693,7 +2705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>43955</v>
       </c>
@@ -2719,7 +2731,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>43956</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>43957</v>
       </c>
@@ -2771,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>43958</v>
       </c>
@@ -2797,7 +2809,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>43959</v>
       </c>
@@ -2823,7 +2835,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>43960</v>
       </c>
@@ -2849,7 +2861,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>43961</v>
       </c>
@@ -2875,7 +2887,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>43962</v>
       </c>
@@ -2901,7 +2913,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>43963</v>
       </c>
@@ -2927,7 +2939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>43964</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>43965</v>
       </c>
@@ -2979,7 +2991,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>43966</v>
       </c>
@@ -3005,7 +3017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>43967</v>
       </c>
@@ -3031,7 +3043,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>43968</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>43969</v>
       </c>
@@ -3083,7 +3095,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>43970</v>
       </c>
@@ -3109,7 +3121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>43971</v>
       </c>
@@ -3135,7 +3147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>43972</v>
       </c>
@@ -3161,7 +3173,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>43973</v>
       </c>
@@ -3187,7 +3199,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>43974</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>43975</v>
       </c>
@@ -3239,7 +3251,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>43976</v>
       </c>
@@ -3265,7 +3277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>43977</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>43978</v>
       </c>
@@ -3317,7 +3329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>43979</v>
       </c>
@@ -3343,7 +3355,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>43980</v>
       </c>
@@ -3369,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>43981</v>
       </c>
@@ -3395,7 +3407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>43982</v>
       </c>
@@ -3421,7 +3433,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>43983</v>
       </c>
@@ -3447,7 +3459,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>43984</v>
       </c>
@@ -3473,7 +3485,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>43985</v>
       </c>
@@ -3499,7 +3511,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>43986</v>
       </c>
@@ -3525,7 +3537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>43987</v>
       </c>
@@ -3551,7 +3563,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>43988</v>
       </c>
@@ -3577,7 +3589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>43989</v>
       </c>
@@ -3603,7 +3615,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>43990</v>
       </c>
@@ -3629,7 +3641,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>43991</v>
       </c>
@@ -3655,7 +3667,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>43992</v>
       </c>
@@ -3681,7 +3693,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>43993</v>
       </c>
@@ -3707,7 +3719,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>43994</v>
       </c>
@@ -3733,7 +3745,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>43995</v>
       </c>
@@ -3759,7 +3771,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>43996</v>
       </c>
@@ -3785,7 +3797,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>43997</v>
       </c>
@@ -3811,7 +3823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>43998</v>
       </c>
@@ -3837,7 +3849,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>43999</v>
       </c>
@@ -3863,7 +3875,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>44000</v>
       </c>
@@ -3889,7 +3901,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>44001</v>
       </c>
@@ -3915,7 +3927,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>44002</v>
       </c>
@@ -3941,7 +3953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>44003</v>
       </c>
@@ -3967,7 +3979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>44004</v>
       </c>
@@ -3993,7 +4005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>44005</v>
       </c>
@@ -4019,7 +4031,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>44006</v>
       </c>
@@ -4045,7 +4057,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>44007</v>
       </c>
@@ -4071,7 +4083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>44008</v>
       </c>
@@ -4097,7 +4109,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>44009</v>
       </c>
@@ -4123,7 +4135,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>44010</v>
       </c>
@@ -4149,7 +4161,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>44011</v>
       </c>
@@ -4175,7 +4187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>44012</v>
       </c>
@@ -4201,7 +4213,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>44013</v>
       </c>
@@ -4227,7 +4239,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>44014</v>
       </c>
@@ -4253,7 +4265,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>44015</v>
       </c>
@@ -4279,7 +4291,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>44016</v>
       </c>
@@ -4305,7 +4317,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>44017</v>
       </c>
@@ -4331,7 +4343,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>44018</v>
       </c>
@@ -4357,7 +4369,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>44019</v>
       </c>
@@ -4383,7 +4395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>44020</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>44021</v>
       </c>
@@ -4435,7 +4447,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>44022</v>
       </c>
@@ -4461,7 +4473,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>44023</v>
       </c>
@@ -4487,7 +4499,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>44024</v>
       </c>
@@ -4513,7 +4525,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>44025</v>
       </c>
@@ -4539,7 +4551,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>44026</v>
       </c>
@@ -4565,7 +4577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>44027</v>
       </c>
@@ -4591,7 +4603,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>44028</v>
       </c>
@@ -4617,7 +4629,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>44029</v>
       </c>
@@ -4643,7 +4655,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>44030</v>
       </c>
@@ -4669,7 +4681,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>44031</v>
       </c>
@@ -4695,7 +4707,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>44032</v>
       </c>
@@ -4721,7 +4733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>44033</v>
       </c>
@@ -4747,7 +4759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>44034</v>
       </c>
@@ -4773,7 +4785,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>44035</v>
       </c>
@@ -4799,7 +4811,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>44036</v>
       </c>
@@ -4825,7 +4837,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>44037</v>
       </c>
@@ -4851,7 +4863,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>44038</v>
       </c>
@@ -4877,7 +4889,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>44039</v>
       </c>
@@ -4903,7 +4915,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>44040</v>
       </c>
@@ -4929,7 +4941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>44041</v>
       </c>
@@ -4956,7 +4968,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H158">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H158">
     <sortCondition ref="A1"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
